--- a/public/excel/product/Gia thép I.xlsx
+++ b/public/excel/product/Gia thép I.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t xml:space="preserve">Tên</t>
   </si>
@@ -32,7 +32,16 @@
     <t xml:space="preserve">Trọng lượng</t>
   </si>
   <si>
-    <t xml:space="preserve">Giá sản phẩm</t>
+    <t xml:space="preserve">Giá chưa VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng giá chưa VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá có VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng giá có VAT</t>
   </si>
   <si>
     <t xml:space="preserve">Danh mục</t>
@@ -53,67 +62,199 @@
     <t xml:space="preserve">Thép hình I 120 x 64 x 4.8 x 6m</t>
   </si>
   <si>
+    <t xml:space="preserve">1.003.605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.103.966</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 150 x 75 x 5 x 7 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">2.443.560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.687.916</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 194 x 150 x 6 x 9 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">6.542.770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.197.047</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 200 x 100 x 5.5 x 8 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">4.414.979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.856.477</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 250 x 125 x 6 x 9 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">6.135.370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.748.907</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 294 x 200 x 8 x 12 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">12.826.349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.108.984</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 300 x 150 x 6.5 x 9 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">8.287.447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.116.192</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 350 x 175 x 7 x 11 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">11.200.474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.320.521</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 390 x 300 x 10 x 16 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">24.162.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.578.543</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 400 x 200 x 8 x 13 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">14.903.856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.394.242</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 450 x 200 x 9 x 14 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">17.162.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.878.218</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 482 x 300 x 11 x 15 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">25.743.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.317.326</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 488 x 300 x 11 x 18 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">27.477.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.224.700</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 496 x 199 x 9 x 14 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">17.123.666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.836.033</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 500 x 200 x 10 x 16 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">19.387.771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.326.548</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 582 x 300 x 12 x 20 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">29.235.528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.159.081</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 588 x 300 x 12 x 10 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">32.312.952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.544.247</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 596 x 199 x 10 x 15 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">20.332.980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.366.278</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 600 x 200 x 11 x 17 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">22.641.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.905.153</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 700 x 300 x 13 x 24 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">40.006.512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.007.163</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 800 x 300 x 14 x 26 x 12m</t>
   </si>
   <si>
+    <t xml:space="preserve">45.501.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.052.103</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thép hình I 900 x 300 x 16 x 28 x 12m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.755.840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.031.424</t>
   </si>
 </sst>
 </file>
@@ -336,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BN24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,10 +488,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -372,9 +511,15 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -429,10 +574,13 @@
       <c r="BI1" s="2"/>
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>6</v>
@@ -443,15 +591,21 @@
       <c r="D2" s="5" t="n">
         <v>14.545</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="E2" s="5" t="n">
+        <v>826.156</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>908.772</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -506,10 +660,13 @@
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>6</v>
@@ -520,15 +677,21 @@
       <c r="D3" s="5" t="n">
         <v>14.545</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -583,10 +746,13 @@
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>12</v>
@@ -597,15 +763,21 @@
       <c r="D4" s="5" t="n">
         <v>14.545</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -660,10 +832,13 @@
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>12</v>
@@ -674,15 +849,21 @@
       <c r="D5" s="5" t="n">
         <v>17.818</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -737,10 +918,13 @@
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>12</v>
@@ -751,15 +935,21 @@
       <c r="D6" s="5" t="n">
         <v>17.273</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -814,10 +1004,13 @@
       <c r="BI6" s="2"/>
       <c r="BJ6" s="2"/>
       <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>12</v>
@@ -828,15 +1021,21 @@
       <c r="D7" s="5" t="n">
         <v>17.273</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -891,10 +1090,13 @@
       <c r="BI7" s="2"/>
       <c r="BJ7" s="2"/>
       <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>12</v>
@@ -905,15 +1107,21 @@
       <c r="D8" s="5" t="n">
         <v>18.818</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -968,10 +1176,13 @@
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>12</v>
@@ -982,15 +1193,21 @@
       <c r="D9" s="5" t="n">
         <v>18.818</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1045,10 +1262,13 @@
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>12</v>
@@ -1059,15 +1279,21 @@
       <c r="D10" s="5" t="n">
         <v>18.818</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1122,10 +1348,13 @@
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
       <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>12</v>
@@ -1136,15 +1365,21 @@
       <c r="D11" s="5" t="n">
         <v>18.818</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1199,10 +1434,13 @@
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>12</v>
@@ -1213,15 +1451,21 @@
       <c r="D12" s="5" t="n">
         <v>18.818</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1276,10 +1520,13 @@
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>12</v>
@@ -1290,15 +1537,21 @@
       <c r="D13" s="5" t="n">
         <v>18.818</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1353,10 +1606,13 @@
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>12</v>
@@ -1367,15 +1623,21 @@
       <c r="D14" s="5" t="n">
         <v>18.818</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1430,10 +1692,13 @@
       <c r="BI14" s="2"/>
       <c r="BJ14" s="2"/>
       <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>12</v>
@@ -1444,15 +1709,21 @@
       <c r="D15" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1507,10 +1778,13 @@
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>12</v>
@@ -1521,15 +1795,21 @@
       <c r="D16" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1584,10 +1864,13 @@
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
       <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>12</v>
@@ -1598,15 +1881,21 @@
       <c r="D17" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1661,10 +1950,13 @@
       <c r="BI17" s="2"/>
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>12</v>
@@ -1675,15 +1967,21 @@
       <c r="D18" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1738,10 +2036,13 @@
       <c r="BI18" s="2"/>
       <c r="BJ18" s="2"/>
       <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>12</v>
@@ -1752,15 +2053,21 @@
       <c r="D19" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1815,10 +2122,13 @@
       <c r="BI19" s="2"/>
       <c r="BJ19" s="2"/>
       <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>12</v>
@@ -1829,15 +2139,21 @@
       <c r="D20" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1892,10 +2208,13 @@
       <c r="BI20" s="2"/>
       <c r="BJ20" s="2"/>
       <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>12</v>
@@ -1906,15 +2225,21 @@
       <c r="D21" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1969,10 +2294,13 @@
       <c r="BI21" s="2"/>
       <c r="BJ21" s="2"/>
       <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>12</v>
@@ -1983,15 +2311,21 @@
       <c r="D22" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2046,10 +2380,13 @@
       <c r="BI22" s="2"/>
       <c r="BJ22" s="2"/>
       <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>12</v>
@@ -2060,15 +2397,21 @@
       <c r="D23" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="E23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2123,10 +2466,13 @@
       <c r="BI23" s="2"/>
       <c r="BJ23" s="2"/>
       <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>12</v>
@@ -2137,15 +2483,21 @@
       <c r="D24" s="5" t="n">
         <v>18.318</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="E24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2200,6 +2552,9 @@
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
       <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
